--- a/biology/Botanique/Hoya_pandurata/Hoya_pandurata.xlsx
+++ b/biology/Botanique/Hoya_pandurata/Hoya_pandurata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hoya pandurata est une espèce de plantes à fleurs de la famille des Apocynaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette plante est endémique de Chine[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante est endémique de Chine.
 </t>
         </is>
       </c>
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -568,9 +584,11 @@
           <t>Mimétisme coopératif</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Suite a une découverte des chercheurs chinois Shi-Mao Wu et Jiang-Yun Gao dans la forêt tropicale humide de Xishuangbanna en Chine, il est établi que cette espèce de plante fait l'objet d'un intérêt mimétique de la part de l'espèce d'araignées-crabes Thomisus guangxicus qui prend l'apparence de ses fleurs pour se cacher des prédateurs et améliorer ses capacités de capture de proies[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Suite a une découverte des chercheurs chinois Shi-Mao Wu et Jiang-Yun Gao dans la forêt tropicale humide de Xishuangbanna en Chine, il est établi que cette espèce de plante fait l'objet d'un intérêt mimétique de la part de l'espèce d'araignées-crabes Thomisus guangxicus qui prend l'apparence de ses fleurs pour se cacher des prédateurs et améliorer ses capacités de capture de proies.
 </t>
         </is>
       </c>
@@ -599,9 +617,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (1er avril 2024)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (1er avril 2024) :
 Hoya pandurata subsp. angustifolia Rodda &amp; K.Armstr.
 Hoya pandurata subsp. pandurata</t>
         </is>
@@ -631,9 +651,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Hoya pandurata Tsiang (d)[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Hoya pandurata Tsiang (d).
 </t>
         </is>
       </c>
